--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sancti\git\PblScheduleAlgorythm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464B870-7ED7-4C61-9573-0991E95A6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F981DD3-342D-41FA-ABD8-996FDF133424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2445" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculties" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="247">
   <si>
     <t>FacultyID</t>
   </si>
@@ -604,18 +604,9 @@
     <t>Math</t>
   </si>
   <si>
-    <t>Ang</t>
-  </si>
-  <si>
-    <t>Programing</t>
-  </si>
-  <si>
     <t>IFE</t>
   </si>
   <si>
-    <t>BaseOfFaculty</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -761,6 +752,33 @@
   </si>
   <si>
     <t>NumberOfStudents</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t>Phy</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>AuH</t>
+  </si>
+  <si>
+    <t>Med.</t>
   </si>
 </sst>
 </file>
@@ -1145,100 +1163,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1251,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="81" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="81" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1570,7 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1569,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,7 +1648,7 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,7 +1726,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1699,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,7 +1778,7 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,7 +1804,7 @@
         <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1803,7 +1856,7 @@
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,7 +1882,7 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,7 +2116,7 @@
         <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2089,7 +2142,7 @@
         <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2115,7 +2168,7 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2141,7 +2194,7 @@
         <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2193,7 +2246,7 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2219,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2245,7 +2298,7 @@
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2271,7 +2324,7 @@
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,7 +2350,7 @@
         <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2323,7 +2376,7 @@
         <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2375,7 +2428,7 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2401,7 +2454,7 @@
         <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,7 +2480,7 @@
         <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,7 +2506,7 @@
         <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,7 +2532,7 @@
         <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,7 +2558,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2531,7 +2584,7 @@
         <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2557,7 +2610,7 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,7 +2636,7 @@
         <v>38</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2609,7 +2662,7 @@
         <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="H54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2687,7 +2740,7 @@
         <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2713,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2739,7 +2792,7 @@
         <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2765,7 +2818,7 @@
         <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,7 +2844,7 @@
         <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2817,7 +2870,7 @@
         <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2843,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2869,7 +2922,7 @@
         <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2895,7 +2948,7 @@
         <v>31</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2921,7 +2974,7 @@
         <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,7 +3000,7 @@
         <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2973,7 +3026,7 @@
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2999,7 +3052,7 @@
         <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3025,7 +3078,7 @@
         <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3051,7 +3104,7 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3077,7 +3130,7 @@
         <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3103,7 +3156,7 @@
         <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,7 +3182,7 @@
         <v>48</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,7 +3208,7 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,7 +3234,7 @@
         <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3207,7 +3260,7 @@
         <v>32</v>
       </c>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3233,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3259,7 +3312,7 @@
         <v>50</v>
       </c>
       <c r="H77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3285,7 +3338,7 @@
         <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3311,7 +3364,7 @@
         <v>43</v>
       </c>
       <c r="H79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3337,7 +3390,7 @@
         <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3363,7 +3416,7 @@
         <v>28</v>
       </c>
       <c r="H81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +6972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9029A60C-CBBF-4DC0-B1B2-4BB7345A979E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -6927,16 +6980,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7173,71 +7226,71 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -7245,46 +7298,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="P2" s="1">
         <f>K2-F2</f>
@@ -7312,10 +7365,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -7324,34 +7377,34 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:T21" si="1">K3-F3</f>
@@ -7379,46 +7432,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>164</v>
       </c>
       <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="1"/>
@@ -7446,46 +7499,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
@@ -7513,46 +7566,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>181</v>
       </c>
       <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="1"/>
@@ -7580,46 +7633,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
         <v>181</v>
       </c>
       <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="1"/>
@@ -7647,10 +7700,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>187</v>
@@ -7659,34 +7712,34 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="1"/>
@@ -7714,10 +7767,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -7726,34 +7779,34 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="1"/>
@@ -7781,46 +7834,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
         <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="1"/>
@@ -7848,7 +7901,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
         <v>171</v>
@@ -7860,34 +7913,34 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="1"/>
@@ -7915,46 +7968,46 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
         <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="1"/>
@@ -7982,10 +8035,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -7994,34 +8047,34 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="1"/>
@@ -8061,34 +8114,34 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="1"/>
@@ -8116,46 +8169,46 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="1"/>
@@ -8183,10 +8236,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -8195,34 +8248,34 @@
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="1"/>
@@ -8262,34 +8315,34 @@
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="1"/>
@@ -8317,7 +8370,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -8329,34 +8382,34 @@
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="1"/>
@@ -8384,46 +8437,46 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="1"/>
@@ -8451,46 +8504,46 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
         <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="1"/>
@@ -8518,7 +8571,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
         <v>164</v>
@@ -8530,34 +8583,34 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="1"/>
